--- a/src/test/resources/case/getevaluation.xlsx
+++ b/src/test/resources/case/getevaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Expected" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I26"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -98,11 +97,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7a80c0a724a0b19cc8465f80d9a19704</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/src/test/resources/expected/getevaluation.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/src/test/resources/case/token.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -496,10 +495,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -508,7 +507,7 @@
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -516,12 +515,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -557,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case/getevaluation.xlsx
+++ b/src/test/resources/case/getevaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -97,11 +97,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/src/test/resources/expected/getevaluation.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/src/test/resources/case/token.txt</t>
+    <t>/case/token.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/expected/getevaluation.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -520,7 +520,7 @@
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -533,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -556,7 +556,7 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/case/getevaluation.xlsx
+++ b/src/test/resources/case/getevaluation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/nchr/personresume/getevaluation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>application/x-www-form-urlencoded;charset=utf-8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,10 @@
   </si>
   <si>
     <t>/expected/getevaluation.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/personresume/getevaluation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -465,7 +465,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -480,10 +480,10 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -512,15 +512,15 @@
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -553,10 +553,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
